--- a/prezzi e ptfs/2022_10_02/EUROSTOXX_ret_250.xlsx
+++ b/prezzi e ptfs/2022_10_02/EUROSTOXX_ret_250.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\prezzi e ptfs\2022_10_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE75C51-FF67-428C-8E70-F65050893EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF76358-3B00-42B2-9438-CF3F1BB84969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I168" workbookViewId="0">
-      <selection activeCell="X183" sqref="X183"/>
+    <sheetView tabSelected="1" topLeftCell="I175" workbookViewId="0">
+      <selection activeCell="X184" sqref="X184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24988,7 +24988,7 @@
         <v>-1.5733582089385582E-2</v>
       </c>
       <c r="X183">
-        <v>-0.99005112002631823</v>
+        <v>0</v>
       </c>
       <c r="Y183">
         <v>-2.257434035883021E-2</v>
